--- a/プログラミング言語ランキング.xlsx
+++ b/プログラミング言語ランキング.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>言語</t>
     <rPh sb="0" eb="2">
@@ -821,14 +821,6 @@
     </rPh>
     <rPh sb="65" eb="66">
       <t>ヒロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Javaの派生
-Androidアプリ</t>
-    <rPh sb="5" eb="7">
-      <t>ハセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1437,6 +1429,86 @@
     <rPh sb="46" eb="48">
       <t>テイド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古いシステムの改修とかできる</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>易しい</t>
+    <rPh sb="0" eb="1">
+      <t>ヤサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規には向かない</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やや難しめ</t>
+    <rPh sb="2" eb="3">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaの派生
+Androidアプリ
+結構新しい</t>
+    <rPh sb="5" eb="7">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPの需要減った版
+昔からある安定感は大事
+CGIとほぼ同義</t>
+    <rPh sb="4" eb="6">
+      <t>ジュヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ムカシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>アンテイカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print "Hello World";</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1901,10 +1973,10 @@
   <dimension ref="B2:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1923,7 +1995,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1960,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>30</v>
@@ -2116,7 +2188,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>30</v>
@@ -2125,13 +2197,13 @@
         <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="96" x14ac:dyDescent="0.15">
@@ -2142,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>40</v>
@@ -2151,13 +2223,13 @@
         <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="36" x14ac:dyDescent="0.15">
@@ -2238,7 +2310,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
@@ -2254,7 +2326,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>40</v>
@@ -2263,13 +2335,13 @@
         <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="36" x14ac:dyDescent="0.15">
@@ -2280,16 +2352,16 @@
         <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="6"/>
@@ -2302,7 +2374,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>40</v>
@@ -2311,16 +2383,16 @@
         <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="24" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="36" x14ac:dyDescent="0.15">
       <c r="B19" s="16">
         <v>16</v>
       </c>
@@ -2328,7 +2400,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="5"/>
@@ -2347,7 +2419,9 @@
         <v>69</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="G20" s="7" t="s">
         <v>70</v>
       </c>
@@ -2358,19 +2432,31 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.15">
       <c r="B21" s="16">
         <v>18</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="12">
@@ -2430,20 +2516,20 @@
     </row>
     <row r="27" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C28" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -2474,55 +2560,55 @@
     </row>
     <row r="33" spans="2:9" ht="120" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="48" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -2534,7 +2620,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
@@ -2546,7 +2632,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
@@ -2558,7 +2644,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
@@ -2575,6 +2661,7 @@
     <hyperlink ref="C28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
